--- a/docs/upper_triangle_shot.xlsx
+++ b/docs/upper_triangle_shot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viktorgsteiger/Documents/VBS-Analysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25003E0-900E-BF43-8645-B28ECEABD75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DB80D-A64C-6A48-AEBD-29C08341B19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Team</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>VIRET</t>
-  </si>
-  <si>
-    <t>Vireo</t>
-  </si>
-  <si>
-    <t>SomHunter</t>
   </si>
   <si>
     <t>HTW</t>
@@ -70,10 +64,13 @@
     <t>IVIST</t>
   </si>
   <si>
-    <t>IVOS</t>
+    <t>EOLAS</t>
   </si>
   <si>
-    <t>EOLAS</t>
+    <t>SOMHunter</t>
+  </si>
+  <si>
+    <t>VIREO</t>
   </si>
 </sst>
 </file>
@@ -264,11 +261,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1430,97 +1427,93 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="18" width="5.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.33203125" style="1"/>
+    <col min="2" max="17" width="5.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="88" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1570,13 +1563,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q3" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R3" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1624,15 +1614,12 @@
         <v>1.9E-2</v>
       </c>
       <c r="Q4" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R4" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1676,15 +1663,12 @@
         <v>2.4E-2</v>
       </c>
       <c r="Q5" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R5" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -1726,15 +1710,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q6" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R6" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1774,15 +1755,12 @@
         <v>2.7E-2</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -1820,15 +1798,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q8" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -1864,15 +1839,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q9" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R9" s="7">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -1906,15 +1878,12 @@
         <v>0.04</v>
       </c>
       <c r="Q10" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="R10" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1946,15 +1915,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q11" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R11" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1984,15 +1950,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q12" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R12" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -2020,15 +1983,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q13" s="7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="R13" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -2054,15 +2014,12 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q14" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R14" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -2086,15 +2043,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -2116,15 +2070,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -2144,15 +2095,12 @@
         <v>1</v>
       </c>
       <c r="Q17" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R17" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -2172,40 +2120,13 @@
       <c r="Q18" s="7">
         <v>1</v>
       </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:R19">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B3:Q18">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.15"/>
